--- a/Excel Project Dataset.xlsx
+++ b/Excel Project Dataset.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragav\Documents\Jayashree\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6BBF6-8E19-474A-9BB6-9E3688BBFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BC9AA-F240-45A4-AF4C-B9789ABF83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -723,11 +723,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -780,115 +779,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -12486,8 +12377,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Marital Status">
@@ -12510,7 +12401,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12564,8 +12455,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Region">
@@ -12588,7 +12479,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -28763,7 +28654,449 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67FBF791-D251-41D1-9FFA-E7E42ED931B7}" name="PivotTable4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E182D121-1E59-4FFD-9022-1F95AE02CB6D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DB69B3F-DFD2-41E8-B227-E020C03B7901}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A38:D43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43BF3C98-4D49-4400-8F47-21154E80F9BD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A21:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67FBF791-D251-41D1-9FFA-E7E42ED931B7}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A53:E58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -29151,448 +29484,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E182D121-1E59-4FFD-9022-1F95AE02CB6D}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="34">
-      <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DB69B3F-DFD2-41E8-B227-E020C03B7901}" name="PivotTable3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A38:D43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43BF3C98-4D49-4400-8F47-21154E80F9BD}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A21:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Marital_Status" xr10:uid="{54F77894-F1AB-4F98-B990-B7F6A151F956}" sourceName="Marital Status">
   <pivotTables>
@@ -75014,7 +74905,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -75033,13 +74924,13 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>61066.666666666664</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>64545.454545454544</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>62944.78527607362</v>
       </c>
     </row>
@@ -75047,13 +74938,13 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>61551.724137931036</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>66551.724137931029</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>64551.724137931036</v>
       </c>
     </row>
@@ -75061,26 +74952,26 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>61278.195488721802</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>65542.857142857145</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>63701.2987012987</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
@@ -75094,99 +74985,99 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>26</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>50</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>27</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>29</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>40</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>48</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>36</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>21</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>20</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>133</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>175</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -75200,71 +75091,71 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>26</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>17</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>83</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>133</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>24</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>25</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>133</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>175</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B54" t="s">
@@ -75281,70 +75172,70 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>16</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>37</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>30</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>108</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>175</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>184</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>49</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>64</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>41</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>173</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>276</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>255</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>704</v>
       </c>
     </row>
@@ -75365,36 +75256,36 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="5:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Project Dataset.xlsx
+++ b/Excel Project Dataset.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragav\Documents\Jayashree\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BC9AA-F240-45A4-AF4C-B9789ABF83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D713472F-B89A-4EA6-9726-CCDF2A713754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
+    <sheet name="Bike buyers" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Bike Sales Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bike_buyers!$A$1:$N$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bike buyers'!$A$1:$N$1001</definedName>
     <definedName name="Slicer_Marital_Status">#N/A</definedName>
     <definedName name="Slicer_Region">#N/A</definedName>
   </definedNames>
@@ -12564,7 +12564,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ragav R" refreshedDate="44967.591355208337" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{8BCA9FC3-2F27-4EF0-AD5D-F6378E4105DD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1001" sheet="bike_buyers"/>
+    <worksheetSource ref="A1:N1001" sheet="Bike buyers"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="ID" numFmtId="0">
@@ -28654,157 +28654,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E182D121-1E59-4FFD-9022-1F95AE02CB6D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DB69B3F-DFD2-41E8-B227-E020C03B7901}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A38:D43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -28945,7 +28794,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43BF3C98-4D49-4400-8F47-21154E80F9BD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A21:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -29095,7 +28944,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67FBF791-D251-41D1-9FFA-E7E42ED931B7}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A53:E58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -29484,6 +29333,157 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E182D121-1E59-4FFD-9022-1F95AE02CB6D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Marital_Status" xr10:uid="{54F77894-F1AB-4F98-B990-B7F6A151F956}" sourceName="Marital Status">
   <pivotTables>
